--- a/Expt4_Df.xlsx
+++ b/Expt4_Df.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucyjustice/Dropbox/Psychology/Research/Current Projects/Internal Collabs/Cog lie detection/Data &amp; Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matlabultra\Desktop\Sekani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F15C9408-1139-BB44-8774-3BB2B23EE8B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="2040" windowWidth="26720" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>N</t>
   </si>
@@ -36,13 +35,16 @@
     <t>RMS</t>
   </si>
   <si>
-    <t>Cond (1 truth, 2 lie)</t>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>word count</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -353,16 +355,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D263"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -375,8 +380,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -389,8 +397,11 @@
       <c r="D2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -403,8 +414,11 @@
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -417,8 +431,11 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -431,8 +448,11 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -445,8 +465,11 @@
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -459,8 +482,11 @@
       <c r="D7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -473,8 +499,11 @@
       <c r="D8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -487,8 +516,11 @@
       <c r="D9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -501,8 +533,11 @@
       <c r="D10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -515,8 +550,11 @@
       <c r="D11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -529,8 +567,11 @@
       <c r="D12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -543,8 +584,11 @@
       <c r="D13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -557,8 +601,11 @@
       <c r="D14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -571,8 +618,11 @@
       <c r="D15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -585,8 +635,11 @@
       <c r="D16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -599,8 +652,11 @@
       <c r="D17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -613,8 +669,11 @@
       <c r="D18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -627,8 +686,11 @@
       <c r="D19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -641,8 +703,11 @@
       <c r="D20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -655,8 +720,11 @@
       <c r="D21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -669,8 +737,11 @@
       <c r="D22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -683,8 +754,11 @@
       <c r="D23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -697,8 +771,11 @@
       <c r="D24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -711,8 +788,11 @@
       <c r="D25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
@@ -725,8 +805,11 @@
       <c r="D26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
@@ -739,8 +822,11 @@
       <c r="D27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4</v>
       </c>
@@ -753,8 +839,11 @@
       <c r="D28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -767,8 +856,11 @@
       <c r="D29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
@@ -781,8 +873,11 @@
       <c r="D30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -795,8 +890,11 @@
       <c r="D31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -809,8 +907,11 @@
       <c r="D32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5</v>
       </c>
@@ -823,8 +924,11 @@
       <c r="D33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5</v>
       </c>
@@ -837,8 +941,11 @@
       <c r="D34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5</v>
       </c>
@@ -851,8 +958,11 @@
       <c r="D35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5</v>
       </c>
@@ -865,8 +975,11 @@
       <c r="D36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5</v>
       </c>
@@ -879,8 +992,11 @@
       <c r="D37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5</v>
       </c>
@@ -893,8 +1009,11 @@
       <c r="D38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
@@ -907,8 +1026,11 @@
       <c r="D39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5</v>
       </c>
@@ -921,8 +1043,11 @@
       <c r="D40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>6</v>
       </c>
@@ -935,8 +1060,11 @@
       <c r="D41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6</v>
       </c>
@@ -949,8 +1077,11 @@
       <c r="D42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>6</v>
       </c>
@@ -963,8 +1094,11 @@
       <c r="D43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>6</v>
       </c>
@@ -977,8 +1111,11 @@
       <c r="D44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>6</v>
       </c>
@@ -991,8 +1128,11 @@
       <c r="D45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>6</v>
       </c>
@@ -1005,8 +1145,11 @@
       <c r="D46">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>6</v>
       </c>
@@ -1019,8 +1162,11 @@
       <c r="D47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>7</v>
       </c>
@@ -1033,8 +1179,11 @@
       <c r="D48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>7</v>
       </c>
@@ -1047,8 +1196,11 @@
       <c r="D49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>7</v>
       </c>
@@ -1061,8 +1213,11 @@
       <c r="D50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>7</v>
       </c>
@@ -1075,8 +1230,11 @@
       <c r="D51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>7</v>
       </c>
@@ -1089,8 +1247,11 @@
       <c r="D52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>8</v>
       </c>
@@ -1103,8 +1264,11 @@
       <c r="D53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>8</v>
       </c>
@@ -1117,8 +1281,11 @@
       <c r="D54">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>8</v>
       </c>
@@ -1131,8 +1298,11 @@
       <c r="D55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>8</v>
       </c>
@@ -1145,8 +1315,11 @@
       <c r="D56">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>8</v>
       </c>
@@ -1159,8 +1332,11 @@
       <c r="D57">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>8</v>
       </c>
@@ -1173,8 +1349,11 @@
       <c r="D58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>8</v>
       </c>
@@ -1187,8 +1366,11 @@
       <c r="D59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>9</v>
       </c>
@@ -1201,8 +1383,11 @@
       <c r="D60">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>9</v>
       </c>
@@ -1215,8 +1400,11 @@
       <c r="D61">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>9</v>
       </c>
@@ -1229,8 +1417,11 @@
       <c r="D62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>9</v>
       </c>
@@ -1243,8 +1434,11 @@
       <c r="D63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>9</v>
       </c>
@@ -1257,8 +1451,11 @@
       <c r="D64">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>9</v>
       </c>
@@ -1271,8 +1468,11 @@
       <c r="D65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>9</v>
       </c>
@@ -1285,8 +1485,11 @@
       <c r="D66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>9</v>
       </c>
@@ -1299,8 +1502,11 @@
       <c r="D67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>10</v>
       </c>
@@ -1313,8 +1519,11 @@
       <c r="D68">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>10</v>
       </c>
@@ -1327,8 +1536,11 @@
       <c r="D69">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>10</v>
       </c>
@@ -1341,8 +1553,11 @@
       <c r="D70">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>10</v>
       </c>
@@ -1355,8 +1570,11 @@
       <c r="D71">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>10</v>
       </c>
@@ -1369,8 +1587,11 @@
       <c r="D72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>10</v>
       </c>
@@ -1383,8 +1604,11 @@
       <c r="D73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>10</v>
       </c>
@@ -1397,8 +1621,11 @@
       <c r="D74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E74">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>10</v>
       </c>
@@ -1411,8 +1638,11 @@
       <c r="D75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>11</v>
       </c>
@@ -1425,8 +1655,11 @@
       <c r="D76">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E76">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>11</v>
       </c>
@@ -1439,8 +1672,11 @@
       <c r="D77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E77">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>11</v>
       </c>
@@ -1453,8 +1689,11 @@
       <c r="D78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E78">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>11</v>
       </c>
@@ -1467,8 +1706,11 @@
       <c r="D79">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E79">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>11</v>
       </c>
@@ -1481,8 +1723,11 @@
       <c r="D80">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E80">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>11</v>
       </c>
@@ -1495,8 +1740,11 @@
       <c r="D81">
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>11</v>
       </c>
@@ -1509,8 +1757,11 @@
       <c r="D82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E82">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>11</v>
       </c>
@@ -1523,8 +1774,11 @@
       <c r="D83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>12</v>
       </c>
@@ -1537,8 +1791,11 @@
       <c r="D84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E84">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>12</v>
       </c>
@@ -1551,8 +1808,11 @@
       <c r="D85">
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E85">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>12</v>
       </c>
@@ -1565,8 +1825,11 @@
       <c r="D86">
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E86">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>12</v>
       </c>
@@ -1579,8 +1842,11 @@
       <c r="D87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E87">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>12</v>
       </c>
@@ -1593,8 +1859,11 @@
       <c r="D88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E88">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>12</v>
       </c>
@@ -1607,8 +1876,11 @@
       <c r="D89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E89">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>12</v>
       </c>
@@ -1621,8 +1893,11 @@
       <c r="D90">
         <v>2</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E90">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>12</v>
       </c>
@@ -1635,8 +1910,11 @@
       <c r="D91">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E91">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>13</v>
       </c>
@@ -1649,8 +1927,11 @@
       <c r="D92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E92">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>13</v>
       </c>
@@ -1663,8 +1944,11 @@
       <c r="D93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E93">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>13</v>
       </c>
@@ -1677,8 +1961,11 @@
       <c r="D94">
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E94">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>13</v>
       </c>
@@ -1691,8 +1978,11 @@
       <c r="D95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E95">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>13</v>
       </c>
@@ -1705,8 +1995,11 @@
       <c r="D96">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E96">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>13</v>
       </c>
@@ -1719,8 +2012,11 @@
       <c r="D97">
         <v>2</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E97">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>13</v>
       </c>
@@ -1733,8 +2029,11 @@
       <c r="D98">
         <v>2</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E98">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>13</v>
       </c>
@@ -1747,8 +2046,11 @@
       <c r="D99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E99">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>14</v>
       </c>
@@ -1761,8 +2063,11 @@
       <c r="D100">
         <v>2</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E100">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>14</v>
       </c>
@@ -1775,8 +2080,11 @@
       <c r="D101">
         <v>2</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E101">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>14</v>
       </c>
@@ -1789,8 +2097,11 @@
       <c r="D102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E102">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>14</v>
       </c>
@@ -1803,8 +2114,11 @@
       <c r="D103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E103">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>14</v>
       </c>
@@ -1817,8 +2131,11 @@
       <c r="D104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E104">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>14</v>
       </c>
@@ -1831,8 +2148,11 @@
       <c r="D105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E105">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>14</v>
       </c>
@@ -1845,8 +2165,11 @@
       <c r="D106">
         <v>2</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E106">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>14</v>
       </c>
@@ -1859,8 +2182,11 @@
       <c r="D107">
         <v>2</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E107">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>15</v>
       </c>
@@ -1873,8 +2199,11 @@
       <c r="D108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E108">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>15</v>
       </c>
@@ -1887,8 +2216,11 @@
       <c r="D109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E109">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>15</v>
       </c>
@@ -1901,8 +2233,11 @@
       <c r="D110">
         <v>2</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E110">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>15</v>
       </c>
@@ -1915,8 +2250,11 @@
       <c r="D111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E111">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>15</v>
       </c>
@@ -1929,8 +2267,11 @@
       <c r="D112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E112">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>15</v>
       </c>
@@ -1943,8 +2284,11 @@
       <c r="D113">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E113">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>15</v>
       </c>
@@ -1957,8 +2301,11 @@
       <c r="D114">
         <v>2</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E114">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>15</v>
       </c>
@@ -1971,8 +2318,11 @@
       <c r="D115">
         <v>2</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E115">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>16</v>
       </c>
@@ -1985,8 +2335,11 @@
       <c r="D116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E116">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>16</v>
       </c>
@@ -1999,8 +2352,11 @@
       <c r="D117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E117">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>16</v>
       </c>
@@ -2013,8 +2369,11 @@
       <c r="D118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E118">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>16</v>
       </c>
@@ -2027,8 +2386,11 @@
       <c r="D119">
         <v>2</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E119">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>16</v>
       </c>
@@ -2041,8 +2403,11 @@
       <c r="D120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E120">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>16</v>
       </c>
@@ -2055,8 +2420,11 @@
       <c r="D121">
         <v>2</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E121">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>16</v>
       </c>
@@ -2069,8 +2437,11 @@
       <c r="D122">
         <v>2</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E122">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>16</v>
       </c>
@@ -2083,8 +2454,11 @@
       <c r="D123">
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E123">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>17</v>
       </c>
@@ -2097,8 +2471,11 @@
       <c r="D124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E124">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>17</v>
       </c>
@@ -2111,8 +2488,11 @@
       <c r="D125">
         <v>2</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E125">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>17</v>
       </c>
@@ -2125,8 +2505,11 @@
       <c r="D126">
         <v>2</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E126">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>17</v>
       </c>
@@ -2139,8 +2522,11 @@
       <c r="D127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E127">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>17</v>
       </c>
@@ -2153,8 +2539,11 @@
       <c r="D128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E128">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>18</v>
       </c>
@@ -2167,8 +2556,11 @@
       <c r="D129">
         <v>2</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E129">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>18</v>
       </c>
@@ -2181,8 +2573,11 @@
       <c r="D130">
         <v>2</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E130">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>18</v>
       </c>
@@ -2195,8 +2590,11 @@
       <c r="D131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E131">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>18</v>
       </c>
@@ -2209,8 +2607,11 @@
       <c r="D132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E132">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>18</v>
       </c>
@@ -2223,8 +2624,11 @@
       <c r="D133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E133">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>18</v>
       </c>
@@ -2237,8 +2641,11 @@
       <c r="D134">
         <v>2</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E134">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>18</v>
       </c>
@@ -2251,8 +2658,11 @@
       <c r="D135">
         <v>2</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E135">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>18</v>
       </c>
@@ -2265,8 +2675,11 @@
       <c r="D136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E136">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>19</v>
       </c>
@@ -2279,8 +2692,11 @@
       <c r="D137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E137">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>19</v>
       </c>
@@ -2293,8 +2709,11 @@
       <c r="D138">
         <v>2</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E138">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>19</v>
       </c>
@@ -2307,8 +2726,11 @@
       <c r="D139">
         <v>2</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E139">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>19</v>
       </c>
@@ -2321,8 +2743,11 @@
       <c r="D140">
         <v>2</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E140">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>19</v>
       </c>
@@ -2335,8 +2760,11 @@
       <c r="D141">
         <v>2</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E141">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>19</v>
       </c>
@@ -2349,8 +2777,11 @@
       <c r="D142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E142">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>19</v>
       </c>
@@ -2363,8 +2794,11 @@
       <c r="D143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E143">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>19</v>
       </c>
@@ -2377,8 +2811,11 @@
       <c r="D144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E144">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>20</v>
       </c>
@@ -2391,8 +2828,11 @@
       <c r="D145">
         <v>2</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E145">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>20</v>
       </c>
@@ -2405,8 +2845,11 @@
       <c r="D146">
         <v>2</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E146">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>20</v>
       </c>
@@ -2419,8 +2862,11 @@
       <c r="D147">
         <v>2</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E147">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>20</v>
       </c>
@@ -2433,8 +2879,11 @@
       <c r="D148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E148">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>20</v>
       </c>
@@ -2447,8 +2896,11 @@
       <c r="D149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E149">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>20</v>
       </c>
@@ -2461,8 +2913,11 @@
       <c r="D150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E150">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>20</v>
       </c>
@@ -2475,8 +2930,11 @@
       <c r="D151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E151">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>20</v>
       </c>
@@ -2489,8 +2947,11 @@
       <c r="D152">
         <v>2</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E152">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>21</v>
       </c>
@@ -2503,8 +2964,11 @@
       <c r="D153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E153">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>21</v>
       </c>
@@ -2517,8 +2981,11 @@
       <c r="D154">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E154">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>21</v>
       </c>
@@ -2531,8 +2998,11 @@
       <c r="D155">
         <v>2</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E155">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>21</v>
       </c>
@@ -2545,8 +3015,11 @@
       <c r="D156">
         <v>2</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E156">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>21</v>
       </c>
@@ -2559,8 +3032,11 @@
       <c r="D157">
         <v>2</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E157">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>21</v>
       </c>
@@ -2573,8 +3049,11 @@
       <c r="D158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E158">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>21</v>
       </c>
@@ -2587,8 +3066,11 @@
       <c r="D159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E159">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>21</v>
       </c>
@@ -2601,8 +3083,11 @@
       <c r="D160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E160">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>22</v>
       </c>
@@ -2615,8 +3100,11 @@
       <c r="D161">
         <v>2</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E161">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>22</v>
       </c>
@@ -2629,8 +3117,11 @@
       <c r="D162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E162">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>22</v>
       </c>
@@ -2643,8 +3134,11 @@
       <c r="D163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E163">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>22</v>
       </c>
@@ -2657,8 +3151,11 @@
       <c r="D164">
         <v>2</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E164">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>22</v>
       </c>
@@ -2671,8 +3168,11 @@
       <c r="D165">
         <v>2</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E165">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>22</v>
       </c>
@@ -2685,8 +3185,11 @@
       <c r="D166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E166">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>22</v>
       </c>
@@ -2699,8 +3202,11 @@
       <c r="D167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E167">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>23</v>
       </c>
@@ -2713,8 +3219,11 @@
       <c r="D168">
         <v>2</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E168">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>23</v>
       </c>
@@ -2727,8 +3236,11 @@
       <c r="D169">
         <v>2</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E169">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>23</v>
       </c>
@@ -2741,8 +3253,11 @@
       <c r="D170">
         <v>2</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E170">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>23</v>
       </c>
@@ -2755,8 +3270,11 @@
       <c r="D171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E171">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>23</v>
       </c>
@@ -2769,8 +3287,11 @@
       <c r="D172">
         <v>2</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E172">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>23</v>
       </c>
@@ -2783,8 +3304,11 @@
       <c r="D173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E173">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>23</v>
       </c>
@@ -2797,8 +3321,11 @@
       <c r="D174">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E174">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>23</v>
       </c>
@@ -2811,8 +3338,11 @@
       <c r="D175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E175">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>24</v>
       </c>
@@ -2825,8 +3355,11 @@
       <c r="D176">
         <v>2</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E176">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>24</v>
       </c>
@@ -2839,8 +3372,11 @@
       <c r="D177">
         <v>2</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E177">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>24</v>
       </c>
@@ -2853,8 +3389,11 @@
       <c r="D178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E178">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>24</v>
       </c>
@@ -2867,8 +3406,11 @@
       <c r="D179">
         <v>2</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E179">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>24</v>
       </c>
@@ -2881,8 +3423,11 @@
       <c r="D180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E180">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>24</v>
       </c>
@@ -2895,8 +3440,11 @@
       <c r="D181">
         <v>2</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E181">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>24</v>
       </c>
@@ -2909,8 +3457,11 @@
       <c r="D182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E182">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>25</v>
       </c>
@@ -2923,8 +3474,11 @@
       <c r="D183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E183">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>25</v>
       </c>
@@ -2937,8 +3491,11 @@
       <c r="D184">
         <v>2</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E184">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>25</v>
       </c>
@@ -2951,8 +3508,11 @@
       <c r="D185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E185">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>25</v>
       </c>
@@ -2965,8 +3525,11 @@
       <c r="D186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E186">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>25</v>
       </c>
@@ -2979,8 +3542,11 @@
       <c r="D187">
         <v>2</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E187">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>25</v>
       </c>
@@ -2993,8 +3559,11 @@
       <c r="D188">
         <v>2</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E188">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>25</v>
       </c>
@@ -3007,8 +3576,11 @@
       <c r="D189">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E189">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>25</v>
       </c>
@@ -3021,8 +3593,11 @@
       <c r="D190">
         <v>2</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E190">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>26</v>
       </c>
@@ -3035,8 +3610,11 @@
       <c r="D191">
         <v>2</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E191">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>26</v>
       </c>
@@ -3049,8 +3627,11 @@
       <c r="D192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E192">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>26</v>
       </c>
@@ -3063,8 +3644,11 @@
       <c r="D193">
         <v>2</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E193">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>26</v>
       </c>
@@ -3077,8 +3661,11 @@
       <c r="D194">
         <v>2</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E194">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>26</v>
       </c>
@@ -3091,8 +3678,11 @@
       <c r="D195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E195">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>26</v>
       </c>
@@ -3105,8 +3695,11 @@
       <c r="D196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E196">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>26</v>
       </c>
@@ -3119,8 +3712,11 @@
       <c r="D197">
         <v>2</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E197">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>26</v>
       </c>
@@ -3133,8 +3729,11 @@
       <c r="D198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E198">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>27</v>
       </c>
@@ -3147,8 +3746,11 @@
       <c r="D199">
         <v>2</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E199">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>27</v>
       </c>
@@ -3161,8 +3763,11 @@
       <c r="D200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E200">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>27</v>
       </c>
@@ -3175,8 +3780,11 @@
       <c r="D201">
         <v>2</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E201">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>27</v>
       </c>
@@ -3189,8 +3797,11 @@
       <c r="D202">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E202">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>27</v>
       </c>
@@ -3203,8 +3814,11 @@
       <c r="D203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E203">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>27</v>
       </c>
@@ -3217,8 +3831,11 @@
       <c r="D204">
         <v>2</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E204">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>27</v>
       </c>
@@ -3231,8 +3848,11 @@
       <c r="D205">
         <v>2</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E205">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>27</v>
       </c>
@@ -3245,8 +3865,11 @@
       <c r="D206">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E206">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>29</v>
       </c>
@@ -3259,8 +3882,11 @@
       <c r="D207">
         <v>2</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E207">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>29</v>
       </c>
@@ -3273,8 +3899,11 @@
       <c r="D208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E208">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>29</v>
       </c>
@@ -3287,8 +3916,11 @@
       <c r="D209">
         <v>2</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E209">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>29</v>
       </c>
@@ -3301,8 +3933,11 @@
       <c r="D210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E210">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>29</v>
       </c>
@@ -3315,8 +3950,11 @@
       <c r="D211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E211">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>29</v>
       </c>
@@ -3329,8 +3967,11 @@
       <c r="D212">
         <v>2</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E212">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>29</v>
       </c>
@@ -3343,8 +3984,11 @@
       <c r="D213">
         <v>2</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E213">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>29</v>
       </c>
@@ -3357,8 +4001,11 @@
       <c r="D214">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E214">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>30</v>
       </c>
@@ -3371,8 +4018,11 @@
       <c r="D215">
         <v>2</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E215">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>30</v>
       </c>
@@ -3385,8 +4035,11 @@
       <c r="D216">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E216">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>30</v>
       </c>
@@ -3399,8 +4052,11 @@
       <c r="D217">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E217">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>30</v>
       </c>
@@ -3413,8 +4069,11 @@
       <c r="D218">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E218">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>30</v>
       </c>
@@ -3427,8 +4086,11 @@
       <c r="D219">
         <v>2</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E219">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>30</v>
       </c>
@@ -3441,8 +4103,11 @@
       <c r="D220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E220">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>30</v>
       </c>
@@ -3455,8 +4120,11 @@
       <c r="D221">
         <v>2</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E221">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>31</v>
       </c>
@@ -3469,8 +4137,11 @@
       <c r="D222">
         <v>2</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E222">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>31</v>
       </c>
@@ -3483,8 +4154,11 @@
       <c r="D223">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E223">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>31</v>
       </c>
@@ -3497,8 +4171,11 @@
       <c r="D224">
         <v>2</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E224">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>31</v>
       </c>
@@ -3511,8 +4188,11 @@
       <c r="D225">
         <v>2</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E225">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>31</v>
       </c>
@@ -3525,8 +4205,11 @@
       <c r="D226">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E226">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>31</v>
       </c>
@@ -3539,8 +4222,11 @@
       <c r="D227">
         <v>2</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E227">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>31</v>
       </c>
@@ -3553,8 +4239,11 @@
       <c r="D228">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E228">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>32</v>
       </c>
@@ -3567,8 +4256,11 @@
       <c r="D229">
         <v>2</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E229">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>32</v>
       </c>
@@ -3581,8 +4273,11 @@
       <c r="D230">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E230">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>32</v>
       </c>
@@ -3595,8 +4290,11 @@
       <c r="D231">
         <v>2</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E231">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>32</v>
       </c>
@@ -3609,8 +4307,11 @@
       <c r="D232">
         <v>2</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E232">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>32</v>
       </c>
@@ -3623,8 +4324,11 @@
       <c r="D233">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E233">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>32</v>
       </c>
@@ -3637,8 +4341,11 @@
       <c r="D234">
         <v>2</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E234">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>32</v>
       </c>
@@ -3651,8 +4358,11 @@
       <c r="D235">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E235">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>32</v>
       </c>
@@ -3665,8 +4375,11 @@
       <c r="D236">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E236">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>33</v>
       </c>
@@ -3679,8 +4392,11 @@
       <c r="D237">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E237">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>33</v>
       </c>
@@ -3693,8 +4409,11 @@
       <c r="D238">
         <v>2</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E238">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>33</v>
       </c>
@@ -3707,8 +4426,11 @@
       <c r="D239">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E239">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>33</v>
       </c>
@@ -3721,8 +4443,11 @@
       <c r="D240">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E240">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>33</v>
       </c>
@@ -3735,8 +4460,11 @@
       <c r="D241">
         <v>2</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E241">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>33</v>
       </c>
@@ -3749,8 +4477,11 @@
       <c r="D242">
         <v>2</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E242">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>34</v>
       </c>
@@ -3763,8 +4494,11 @@
       <c r="D243">
         <v>2</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E243">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>34</v>
       </c>
@@ -3777,8 +4511,11 @@
       <c r="D244">
         <v>2</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E244">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>34</v>
       </c>
@@ -3791,8 +4528,11 @@
       <c r="D245">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E245">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>34</v>
       </c>
@@ -3805,8 +4545,11 @@
       <c r="D246">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E246">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>34</v>
       </c>
@@ -3819,8 +4562,11 @@
       <c r="D247">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E247">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>34</v>
       </c>
@@ -3833,8 +4579,11 @@
       <c r="D248">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E248">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>34</v>
       </c>
@@ -3847,8 +4596,11 @@
       <c r="D249">
         <v>2</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E249">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>34</v>
       </c>
@@ -3861,8 +4613,11 @@
       <c r="D250">
         <v>2</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E250">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>35</v>
       </c>
@@ -3875,8 +4630,11 @@
       <c r="D251">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E251">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>35</v>
       </c>
@@ -3889,8 +4647,11 @@
       <c r="D252">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E252">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>35</v>
       </c>
@@ -3903,8 +4664,11 @@
       <c r="D253">
         <v>2</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E253">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>35</v>
       </c>
@@ -3917,8 +4681,11 @@
       <c r="D254">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E254">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>35</v>
       </c>
@@ -3931,8 +4698,11 @@
       <c r="D255">
         <v>2</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E255">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>35</v>
       </c>
@@ -3945,8 +4715,11 @@
       <c r="D256">
         <v>2</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E256">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>35</v>
       </c>
@@ -3959,8 +4732,11 @@
       <c r="D257">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E257">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>36</v>
       </c>
@@ -3973,8 +4749,11 @@
       <c r="D258">
         <v>2</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E258">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>36</v>
       </c>
@@ -3987,8 +4766,11 @@
       <c r="D259">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E259">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>36</v>
       </c>
@@ -4001,8 +4783,11 @@
       <c r="D260">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E260">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>36</v>
       </c>
@@ -4015,8 +4800,11 @@
       <c r="D261">
         <v>2</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E261">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>36</v>
       </c>
@@ -4029,8 +4817,11 @@
       <c r="D262">
         <v>2</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E262">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>36</v>
       </c>
@@ -4042,6 +4833,9 @@
       </c>
       <c r="D263">
         <v>1</v>
+      </c>
+      <c r="E263">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
